--- a/Technology/Software/Palantir.xlsx
+++ b/Technology/Software/Palantir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2625BB0B-F56F-944D-AB7F-875DA102373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ED36B8-774B-DB46-8782-77F91B81B328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,9 +1541,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -1562,7 +1562,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1704,10 +1704,10 @@
     <v>20.239899999999999</v>
     <v>5.84</v>
     <v>1.887</v>
-    <v>-0.14000000000000001</v>
-    <v>-8.1399999999999997E-3</v>
-    <v>-0.2</v>
-    <v>-1.1722999999999999E-2</v>
+    <v>-0.95</v>
+    <v>-5.5685999999999999E-2</v>
+    <v>-2.5000000000000001E-2</v>
+    <v>-1.552E-3</v>
     <v>USD</v>
     <v>Palantir Technologies Inc. is engaged in building software to assist in counterterrorism investigations and operations. The Company’s three principal software platforms include Palantir Gotham (Gotham), Palantir Foundry (Foundry), and Palantir Apollo (Apollo). Gotham enables users to identify patterns hidden deep within datasets, ranging from signals intelligence sources to reports from confidential informants. It also facilitates the hand-off between analysts and operational users, helping operators plan and execute real-world responses to threats. Foundry transforms the ways organizations operate by creating a central operating system for their data. Apollo is a cloud-agnostic, single control layer that coordinates ongoing delivery of new features, security updates, and platform configurations, helping to ensure the continuous operation of critical systems and allowing its customers to run their software in virtually any environment.</v>
     <v>3734</v>
@@ -1715,24 +1715,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1200 17Th Street, Floor 15, DENVER, CO, 80202 US</v>
-    <v>17.579899999999999</v>
+    <v>16.940000000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.999996596875</v>
+    <v>45219.999978286716</v>
     <v>0</v>
-    <v>16.97</v>
-    <v>36692989200</v>
+    <v>15.81</v>
+    <v>34649710200</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
-    <v>17.440000000000001</v>
-    <v>17.2</v>
+    <v>16.850000000000001</v>
     <v>17.059999999999999</v>
-    <v>16.86</v>
+    <v>16.11</v>
+    <v>16.085000000000001</v>
     <v>2150820000</v>
     <v>PLTR</v>
     <v>PALANTIR TECHNOLOGIES INC. (XNYS:PLTR)</v>
-    <v>46303217</v>
-    <v>55687067</v>
+    <v>63875487</v>
+    <v>55996295</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -13538,7 +13538,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13587,7 +13587,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>36692989200</v>
+        <v>34649710200</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>193</v>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>20626759296.162426</v>
+        <v>20810893567.668339</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>197</v>
@@ -13660,14 +13660,14 @@
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>15558717199.555141</v>
+        <v>15717582887.138216</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>202</v>
       </c>
       <c r="K4" s="42" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-8.1399999999999997E-3</v>
+        <v>-5.5685999999999999E-2</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>203</v>
@@ -13710,14 +13710,14 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>18415980199.555141</v>
+        <v>18574845887.138214</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>209</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>17.059999999999999</v>
+        <v>16.11</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>210</v>
@@ -13735,7 +13735,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>16.573165853658537</v>
+        <v>15.650275609756097</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>212</v>
@@ -13763,14 +13763,14 @@
       </c>
       <c r="I6" s="60">
         <f>N25</f>
-        <v>0.11444691570348907</v>
+        <v>0.11365549160591447</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>6.8498452495532467</v>
+        <v>6.9089355267807493</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>216</v>
@@ -13788,14 +13788,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>71.989384343731601</v>
+        <v>67.980596821659802</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="67">
         <f>F14/O21</f>
-        <v>1.4375059242976027E-2</v>
+        <v>1.5216774908467803E-2</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>219</v>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="K7" s="108">
         <f>K6/K5-1</f>
-        <v>-0.59848503812700771</v>
+        <v>-0.57113994247171007</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>222</v>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="O14" s="92">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.11502726000000002</v>
+        <v>0.11426444000000001</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -14307,7 +14307,7 @@
       </c>
       <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>36692989200</v>
+        <v>34649710200</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>36938978200</v>
+        <v>34895699200</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>6.6593341772512808E-3</v>
+        <v>7.0492641110340608E-3</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -14375,7 +14375,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.99334066582274871</v>
+        <v>0.99295073588896599</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -14415,7 +14415,7 @@
       <c r="M25" s="83"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11444691570348907</v>
+        <v>0.11365549160591447</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="46"/>

--- a/Technology/Software/Palantir.xlsx
+++ b/Technology/Software/Palantir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ED36B8-774B-DB46-8782-77F91B81B328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF4480-1C8A-374B-8C79-6C46D0E97A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1537,16 +1537,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1559,14 +1558,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -1575,7 +1574,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1703,11 +1701,11 @@
     <v>Powered by Refinitiv</v>
     <v>20.239899999999999</v>
     <v>5.84</v>
-    <v>1.887</v>
-    <v>-0.95</v>
-    <v>-5.5685999999999999E-2</v>
-    <v>-2.5000000000000001E-2</v>
-    <v>-1.552E-3</v>
+    <v>2.012</v>
+    <v>3.05</v>
+    <v>0.20442399999999999</v>
+    <v>-0.21</v>
+    <v>-1.1686E-2</v>
     <v>USD</v>
     <v>Palantir Technologies Inc. is engaged in building software to assist in counterterrorism investigations and operations. The Company’s three principal software platforms include Palantir Gotham (Gotham), Palantir Foundry (Foundry), and Palantir Apollo (Apollo). Gotham enables users to identify patterns hidden deep within datasets, ranging from signals intelligence sources to reports from confidential informants. It also facilitates the hand-off between analysts and operational users, helping operators plan and execute real-world responses to threats. Foundry transforms the ways organizations operate by creating a central operating system for their data. Apollo is a cloud-agnostic, single control layer that coordinates ongoing delivery of new features, security updates, and platform configurations, helping to ensure the continuous operation of critical systems and allowing its customers to run their software in virtually any environment.</v>
     <v>3734</v>
@@ -1715,24 +1713,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1200 17Th Street, Floor 15, DENVER, CO, 80202 US</v>
-    <v>16.940000000000001</v>
+    <v>18.3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45219.999978286716</v>
+    <v>45232.999979617969</v>
     <v>0</v>
-    <v>15.81</v>
-    <v>34649710200</v>
+    <v>17.210100000000001</v>
+    <v>38650235400</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
-    <v>16.850000000000001</v>
-    <v>17.059999999999999</v>
-    <v>16.11</v>
-    <v>16.085000000000001</v>
+    <v>17.48</v>
+    <v>274.5607</v>
+    <v>14.92</v>
+    <v>17.97</v>
+    <v>17.760000000000002</v>
     <v>2150820000</v>
     <v>PLTR</v>
     <v>PALANTIR TECHNOLOGIES INC. (XNYS:PLTR)</v>
-    <v>63875487</v>
-    <v>55996295</v>
+    <v>170406782</v>
+    <v>56295957</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -1783,6 +1782,7 @@
     <k n="Name" t="s"/>
     <k n="Official name" t="s"/>
     <k n="Open"/>
+    <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Price (Extended hours)"/>
@@ -1802,7 +1802,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1834,6 +1834,7 @@
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
       <v t="s">Beta</v>
+      <v t="s">P/E</v>
       <v t="s">Shares outstanding</v>
       <v t="s">Description</v>
       <v t="s">Employees</v>
@@ -1869,6 +1870,7 @@
     <spb s="3">
       <v>1</v>
       <v>2</v>
+      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
@@ -1894,9 +1896,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -1924,6 +1926,7 @@
   </s>
   <s>
     <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
     <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
@@ -13538,7 +13541,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13587,7 +13590,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>34649710200</v>
+        <v>38650235400</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>193</v>
@@ -13615,7 +13618,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>20810893567.668339</v>
+        <v>19608368760.222084</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>197</v>
@@ -13660,14 +13663,14 @@
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>15717582887.138216</v>
+        <v>14681202499.442535</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>202</v>
       </c>
       <c r="K4" s="42" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-5.5685999999999999E-2</v>
+        <v>0.20442399999999999</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>203</v>
@@ -13710,14 +13713,14 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>18574845887.138214</v>
+        <v>17538465499.442535</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>209</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>16.11</v>
+        <v>17.97</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>210</v>
@@ -13735,7 +13738,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>15.650275609756097</v>
+        <v>17.457197560975608</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>212</v>
@@ -13763,14 +13766,14 @@
       </c>
       <c r="I6" s="60">
         <f>N25</f>
-        <v>0.11365549160591447</v>
+        <v>0.11909247768446719</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>6.9089355267807493</v>
+        <v>6.5234526364614558</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>216</v>
@@ -13788,14 +13791,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>67.980596821659802</v>
+        <v>75.829380812242491</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="67">
         <f>F14/O21</f>
-        <v>1.5216774908467803E-2</v>
+        <v>1.3651710627214502E-2</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>219</v>
@@ -13822,7 +13825,7 @@
       </c>
       <c r="K7" s="108">
         <f>K6/K5-1</f>
-        <v>-0.57113994247171007</v>
+        <v>-0.6369809328624676</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>222</v>
@@ -14127,7 +14130,7 @@
       </c>
       <c r="O14" s="92">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -14177,7 +14180,7 @@
       </c>
       <c r="O15" s="96" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.887</v>
+        <v>2.012</v>
       </c>
       <c r="P15" s="46"/>
     </row>
@@ -14232,7 +14235,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.11426444000000001</v>
+        <v>0.11967300000000002</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -14307,7 +14310,7 @@
       </c>
       <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>34649710200</v>
+        <v>38650235400</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -14329,7 +14332,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>34895699200</v>
+        <v>38896224400</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -14352,7 +14355,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>7.0492641110340608E-3</v>
+        <v>6.3242385037247982E-3</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -14375,7 +14378,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.99295073588896599</v>
+        <v>0.99367576149627523</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -14415,7 +14418,7 @@
       <c r="M25" s="83"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11365549160591447</v>
+        <v>0.11909247768446719</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="46"/>

--- a/Technology/Software/Palantir.xlsx
+++ b/Technology/Software/Palantir.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF4480-1C8A-374B-8C79-6C46D0E97A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CFF255-1E9E-F64C-997C-0CEBA8B414D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1702,36 +1702,36 @@
     <v>20.239899999999999</v>
     <v>5.84</v>
     <v>2.012</v>
-    <v>3.05</v>
-    <v>0.20442399999999999</v>
-    <v>-0.21</v>
-    <v>-1.1686E-2</v>
+    <v>-0.31</v>
+    <v>-1.6489E-2</v>
+    <v>-0.12</v>
+    <v>-6.4900000000000001E-3</v>
     <v>USD</v>
     <v>Palantir Technologies Inc. is engaged in building software to assist in counterterrorism investigations and operations. The Company’s three principal software platforms include Palantir Gotham (Gotham), Palantir Foundry (Foundry), and Palantir Apollo (Apollo). Gotham enables users to identify patterns hidden deep within datasets, ranging from signals intelligence sources to reports from confidential informants. It also facilitates the hand-off between analysts and operational users, helping operators plan and execute real-world responses to threats. Foundry transforms the ways organizations operate by creating a central operating system for their data. Apollo is a cloud-agnostic, single control layer that coordinates ongoing delivery of new features, security updates, and platform configurations, helping to ensure the continuous operation of critical systems and allowing its customers to run their software in virtually any environment.</v>
-    <v>3734</v>
+    <v>3810</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1200 17Th Street, Floor 15, DENVER, CO, 80202 US</v>
-    <v>18.3</v>
+    <v>18.93</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.999979617969</v>
+    <v>45239.041619120311</v>
     <v>0</v>
-    <v>17.210100000000001</v>
-    <v>38650235400</v>
+    <v>18.149999999999999</v>
+    <v>40215454160</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
-    <v>17.48</v>
-    <v>274.5607</v>
-    <v>14.92</v>
-    <v>17.97</v>
-    <v>17.760000000000002</v>
-    <v>2150820000</v>
+    <v>18.850000000000001</v>
+    <v>282.50569999999999</v>
+    <v>18.8</v>
+    <v>18.489999999999998</v>
+    <v>18.37</v>
+    <v>2174984000</v>
     <v>PLTR</v>
     <v>PALANTIR TECHNOLOGIES INC. (XNYS:PLTR)</v>
-    <v>170406782</v>
-    <v>56295957</v>
+    <v>46063132</v>
+    <v>63443258</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -1896,9 +1896,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -13540,8 +13540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F200FCE6-6A48-CF4E-A339-51AE31F1200D}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13590,7 +13590,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>38650235400</v>
+        <v>40215454160</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>193</v>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>19608368760.222084</v>
+        <v>18986812050.347118</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>197</v>
@@ -13656,21 +13656,21 @@
       </c>
       <c r="G4" s="51">
         <f>A5*(1+(5*0.05))</f>
-        <v>2688525000</v>
+        <v>2718730000</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>241</v>
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>14681202499.442535</v>
+        <v>14146637592.102715</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>202</v>
       </c>
       <c r="K4" s="42" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>0.20442399999999999</v>
+        <v>-1.6489E-2</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>203</v>
@@ -13685,7 +13685,7 @@
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="51" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>2150820000</v>
+        <v>2174984000</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>205</v>
@@ -13713,14 +13713,14 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>17538465499.442535</v>
+        <v>17003900592.102715</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>209</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>17.97</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>210</v>
@@ -13738,7 +13738,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>17.457197560975608</v>
+        <v>18.16416177055104</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>212</v>
@@ -13766,14 +13766,14 @@
       </c>
       <c r="I6" s="60">
         <f>N25</f>
-        <v>0.11909247768446719</v>
+        <v>0.12217271099053563</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>6.5234526364614558</v>
+        <v>6.2543542728048447</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>216</v>
@@ -13791,14 +13791,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>75.829380812242491</v>
+        <v>78.900243594271146</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="67">
         <f>F14/O21</f>
-        <v>1.3651710627214502E-2</v>
+        <v>1.3123605055317063E-2</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>219</v>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="K7" s="108">
         <f>K6/K5-1</f>
-        <v>-0.6369809328624676</v>
+        <v>-0.66174395495917548</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>222</v>
@@ -14130,7 +14130,7 @@
       </c>
       <c r="O14" s="92">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.11967300000000002</v>
+        <v>0.12274948000000001</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -14310,7 +14310,7 @@
       </c>
       <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>38650235400</v>
+        <v>40215454160</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -14332,7 +14332,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>38896224400</v>
+        <v>40461443160</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>6.3242385037247982E-3</v>
+        <v>6.0795903652587366E-3</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -14378,7 +14378,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.99367576149627523</v>
+        <v>0.99392040963474126</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -14418,7 +14418,7 @@
       <c r="M25" s="83"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11909247768446719</v>
+        <v>0.12217271099053563</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="46"/>

--- a/Technology/Software/Palantir.xlsx
+++ b/Technology/Software/Palantir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CFF255-1E9E-F64C-997C-0CEBA8B414D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8925DCFE-64A1-BA48-9716-461AC2C75A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="244">
   <si>
     <t>2018 Y</t>
   </si>
@@ -800,6 +800,12 @@
   </si>
   <si>
     <t>Projected Shares (5%)\</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -812,7 +818,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -969,6 +975,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1052,7 +1064,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1097,65 +1109,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1163,24 +1118,213 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,7 +1334,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1198,7 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1263,250 +1429,263 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1545,6 +1724,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1562,7 +1742,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1574,6 +1754,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1699,13 +1880,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>20.239899999999999</v>
+    <v>21.85</v>
     <v>5.84</v>
-    <v>2.012</v>
-    <v>-0.31</v>
-    <v>-1.6489E-2</v>
-    <v>-0.12</v>
-    <v>-6.4900000000000001E-3</v>
+    <v>1.794</v>
+    <v>0.22500000000000001</v>
+    <v>1.1222000000000001E-2</v>
+    <v>-0.04</v>
+    <v>-1.9729999999999999E-3</v>
     <v>USD</v>
     <v>Palantir Technologies Inc. is engaged in building software to assist in counterterrorism investigations and operations. The Company’s three principal software platforms include Palantir Gotham (Gotham), Palantir Foundry (Foundry), and Palantir Apollo (Apollo). Gotham enables users to identify patterns hidden deep within datasets, ranging from signals intelligence sources to reports from confidential informants. It also facilitates the hand-off between analysts and operational users, helping operators plan and execute real-world responses to threats. Foundry transforms the ways organizations operate by creating a central operating system for their data. Apollo is a cloud-agnostic, single control layer that coordinates ongoing delivery of new features, security updates, and platform configurations, helping to ensure the continuous operation of critical systems and allowing its customers to run their software in virtually any environment.</v>
     <v>3810</v>
@@ -1713,25 +1894,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1200 17Th Street, Floor 15, DENVER, CO, 80202 US</v>
-    <v>18.93</v>
+    <v>20.29</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.041619120311</v>
+    <v>45262.041650832813</v>
     <v>0</v>
-    <v>18.149999999999999</v>
-    <v>40215454160</v>
+    <v>19.55</v>
+    <v>44097800600</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
-    <v>18.850000000000001</v>
-    <v>282.50569999999999</v>
-    <v>18.8</v>
-    <v>18.489999999999998</v>
-    <v>18.37</v>
+    <v>19.93</v>
+    <v>306.34070000000003</v>
+    <v>20.05</v>
+    <v>20.274999999999999</v>
+    <v>20.23</v>
     <v>2174984000</v>
     <v>PLTR</v>
     <v>PALANTIR TECHNOLOGIES INC. (XNYS:PLTR)</v>
-    <v>46063132</v>
-    <v>63443258</v>
+    <v>61493670</v>
+    <v>68967055</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -1896,9 +2077,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2343,9 +2524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D176" sqref="D176"/>
+      <selection pane="topRight" activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10622,8 +10803,8 @@
       <c r="F172" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G172" s="4" t="s">
-        <v>16</v>
+      <c r="G172" s="4">
+        <v>0</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>16</v>
@@ -13531,1745 +13712,1927 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:K1 A4:K7 A15:K16 A19:K33 A191:K195 A2:K2 A9:K11 A13:K13 A37:K128 A130:K142 A144:K187 A188 I188:K188" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:K1 A4:K7 A15:K16 A19:K33 A191:K195 A2:K2 A9:K11 A13:K13 A37:K128 A130:K142 A144:K171 A188 I188:K188 A173:K187 A172:F172 H172:K172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F200FCE6-6A48-CF4E-A339-51AE31F1200D}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="e" vm="1">
+    <row r="1" spans="1:18" s="81" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="80" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-    </row>
-    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+    </row>
+    <row r="2" spans="1:18" s="81" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>40215454160</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>44097800600</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="52">
         <f>Financials!G8*0.01</f>
         <v>0.79150000000000009</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="52">
         <f>SUM(C11:E11)/3</f>
         <v>0.37289448271806541</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="42">
-        <f>SUM(Financials!C129:G129)/5</f>
-        <v>6.3954886290914809E-2</v>
-      </c>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="54">
+        <f>AVERAGE(Financials!F129:K129)</f>
+        <v>1.0051774653253465E-2</v>
+      </c>
+      <c r="H3" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="I3" s="43">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>18986812050.347118</v>
-      </c>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="55">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>20210079959.170105</v>
+      </c>
+      <c r="J3" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="116" t="s">
+      <c r="K3" s="57">
+        <f>Financials!G172*-1/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="O3" s="107"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
         <f>Financials!G56-Financials!G96-Financials!G105</f>
         <v>2857263000</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="40">
         <f>Financials!G17*0.01</f>
         <v>-3.2199999999999999E-2</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="40">
         <f>SUM(C13:E13)/3</f>
         <v>5.8843912838279978E-2</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="62">
         <f>A5*(1+(5*0.05))</f>
         <v>2718730000</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="I4" s="53">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>14146637592.102715</v>
-      </c>
-      <c r="J4" s="50" t="s">
+      <c r="I4" s="39">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>15199442130.088928</v>
+      </c>
+      <c r="J4" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="42" cm="1">
+      <c r="K4" s="63" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.6489E-2</v>
-      </c>
-      <c r="L4" s="41" t="s">
+        <v>1.1222000000000001E-2</v>
+      </c>
+      <c r="L4" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="118" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="119"/>
-      <c r="P4" s="46"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" cm="1">
+      <c r="O4" s="109"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>2174984000</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="40">
         <f>Financials!G34*0.01</f>
         <v>-2.35E-2</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="49">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="40">
+        <f>SUM(C16:E16)/3</f>
         <v>-0.57870877599292048</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="62">
         <f>Financials!G56</f>
         <v>3103252000</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>17003900592.102715</v>
-      </c>
-      <c r="J5" s="50" t="s">
+        <v>18056705130.088928</v>
+      </c>
+      <c r="J5" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="55" cm="1">
+      <c r="K5" s="66" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>18.489999999999998</v>
-      </c>
-      <c r="L5" s="48" t="s">
+        <v>20.274999999999999</v>
+      </c>
+      <c r="L5" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="56" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="111">
         <f>Financials!G21</f>
         <v>5386000</v>
       </c>
-      <c r="P5" s="46"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="68">
         <f>O20/F10</f>
-        <v>18.16416177055104</v>
-      </c>
-      <c r="B6" s="48" t="s">
+        <v>19.917705781391149</v>
+      </c>
+      <c r="B6" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="40">
         <f>Financials!G190</f>
         <v>0.18354655998732522</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="40">
         <f>Financials!G33/Financials!G126</f>
         <v>-1.5837171159927489E-2</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="62">
         <f>Financials!G96+Financials!G105</f>
         <v>245989000</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="63">
         <f>N25</f>
-        <v>0.12217271099053563</v>
-      </c>
-      <c r="J6" s="52" t="s">
+        <v>0.11629107869575009</v>
+      </c>
+      <c r="J6" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="41">
         <f>I5/G4</f>
-        <v>6.2543542728048447</v>
-      </c>
-      <c r="L6" s="62" t="s">
+        <v>6.6415955722300222</v>
+      </c>
+      <c r="L6" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="63" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="64">
+      <c r="O6" s="111">
         <f>Financials!G96</f>
         <v>51855000</v>
       </c>
-      <c r="P6" s="46"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70">
         <f>O20/F12</f>
-        <v>78.900243594271146</v>
-      </c>
-      <c r="B7" s="66" t="s">
+        <v>86.517168138120468</v>
+      </c>
+      <c r="B7" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="67">
-        <f>F14/O21</f>
-        <v>1.3123605055317063E-2</v>
-      </c>
-      <c r="D7" s="68" t="s">
+      <c r="C7" s="72">
+        <f>F15/O21</f>
+        <v>1.1974619327528109E-2</v>
+      </c>
+      <c r="D7" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="73">
         <f>(Financials!G16*(1-0.25))/(Financials!G126+Financials!G105+Financials!G96)</f>
         <v>-1.5046964046195103E-2</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="74">
         <f>(Financials!G96+Financials!G105)/Financials!G126</f>
         <v>8.1047056179982591E-2</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="76">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="73" t="s">
+      <c r="J7" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="108">
+      <c r="K7" s="78">
         <f>K6/K5-1</f>
-        <v>-0.66174395495917548</v>
-      </c>
-      <c r="L7" s="74" t="s">
+        <v>-0.67242438607990018</v>
+      </c>
+      <c r="L7" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="110" t="s">
         <v>223</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="111">
         <f>Financials!G105</f>
         <v>194134000</v>
       </c>
-      <c r="P7" s="46"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="76" t="s">
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="113">
         <f>O5/(O6+O7)</f>
         <v>2.1895288000682956E-2</v>
       </c>
-      <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79">
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87">
         <v>2019</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="87">
         <v>2020</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="87">
         <v>2021</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="88">
         <v>2022</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="89">
         <v>2023</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="90">
         <v>2024</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="90">
         <v>2025</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="90">
         <v>2026</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="91">
         <v>2027</v>
       </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="63" t="s">
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="O9" s="64">
+      <c r="O9" s="111">
         <f>Financials!G25</f>
         <v>9308000</v>
       </c>
-      <c r="P9" s="46"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="93">
         <v>742555000</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="93">
         <v>1092673000</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="93">
         <v>1541889000</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="94">
         <v>1905871000</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="93">
         <v>2214000000</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="93">
         <v>2619000000</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="93">
         <v>3140000000</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="93">
         <v>4475000000</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="94">
         <v>5182000000</v>
       </c>
-      <c r="K10" s="87" t="s">
+      <c r="K10" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="N10" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="O10" s="64">
+      <c r="O10" s="111">
         <f>Financials!G24</f>
         <v>-34055000</v>
       </c>
-      <c r="P10" s="46"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89">
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="96"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.47150446768252863</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>0.41111659206368234</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>0.23606238840798532</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>0.16167358651241348</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="44">
         <f t="shared" si="0"/>
         <v>0.18292682926829262</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>0.19893088965253924</v>
       </c>
-      <c r="I11" s="89">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
         <v>0.42515923566878988</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="97">
         <f t="shared" si="0"/>
         <v>0.15798882681564241</v>
       </c>
-      <c r="K11" s="91">
+      <c r="K11" s="97">
         <f>SUM(F11:J11)/5</f>
         <v>0.22533587358353552</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="63" t="s">
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="O11" s="92">
+      <c r="O11" s="114">
         <f>O9/O10</f>
         <v>-0.2733225664366466</v>
       </c>
-      <c r="P11" s="46"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="93">
         <v>-579646000</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="93">
         <v>-1166391000</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="93">
         <v>-520379000</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="93">
         <v>-373705000</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="98">
         <v>509700000</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="93">
         <v>632200000</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="93">
         <v>794900000</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="93">
         <v>1038000000</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="94">
         <v>1292000000</v>
       </c>
-      <c r="K12" s="87" t="s">
+      <c r="K12" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="93" t="s">
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="110" t="s">
         <v>230</v>
       </c>
-      <c r="O12" s="94">
+      <c r="O12" s="114">
         <f>O8*(1-O11)</f>
         <v>2.7879764309899132E-2</v>
       </c>
-      <c r="P12" s="46"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89">
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="96"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>1.0122471301449507</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="44">
         <f t="shared" si="1"/>
         <v>-0.55385543955671812</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="44">
         <f t="shared" si="1"/>
         <v>-0.28185995207339265</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="45">
         <f t="shared" si="1"/>
         <v>-2.3639100359909557</v>
       </c>
-      <c r="G13" s="89">
+      <c r="G13" s="44">
         <f t="shared" si="1"/>
         <v>0.24033745340396306</v>
       </c>
-      <c r="H13" s="89">
+      <c r="H13" s="44">
         <f t="shared" si="1"/>
         <v>0.25735526732046821</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="44">
         <f t="shared" si="1"/>
         <v>0.30582463202918597</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="97">
         <f t="shared" si="1"/>
         <v>0.24470134874759153</v>
       </c>
-      <c r="K13" s="91">
+      <c r="K13" s="97">
         <f>SUM(F13:J13)/5</f>
         <v>-0.26313826689794939</v>
       </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="118" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="108" t="s">
         <v>231</v>
       </c>
-      <c r="O13" s="119"/>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
+      <c r="O13" s="109"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="83">
+        <f>B12/B10</f>
+        <v>-0.78061019049094005</v>
+      </c>
+      <c r="C14" s="83">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>-1.0674657468428341</v>
+      </c>
+      <c r="D14" s="83">
+        <f t="shared" si="2"/>
+        <v>-0.33749446296069302</v>
+      </c>
+      <c r="E14" s="83">
+        <f t="shared" si="2"/>
+        <v>-0.19608095196369535</v>
+      </c>
+      <c r="F14" s="84">
+        <f t="shared" si="2"/>
+        <v>0.23021680216802168</v>
+      </c>
+      <c r="G14" s="83">
+        <f t="shared" si="2"/>
+        <v>0.24138984345169912</v>
+      </c>
+      <c r="H14" s="83">
+        <f t="shared" si="2"/>
+        <v>0.2531528662420382</v>
+      </c>
+      <c r="I14" s="83">
+        <f t="shared" si="2"/>
+        <v>0.23195530726256983</v>
+      </c>
+      <c r="J14" s="85">
+        <f t="shared" si="2"/>
+        <v>0.24932458510227712</v>
+      </c>
+      <c r="K14" s="85"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="114">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B15" s="93">
         <v>-178311000</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C15" s="93">
         <v>-308844000</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D15" s="93">
         <v>321224000</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E15" s="93">
         <v>183710000</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F15" s="98">
         <v>531000000</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G15" s="93">
         <v>660000000</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H15" s="93">
         <v>827000000</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I15" s="93">
         <v>1400000000</v>
       </c>
-      <c r="J14" s="85">
+      <c r="J15" s="94">
         <v>1800000000</v>
       </c>
-      <c r="K14" s="87" t="s">
+      <c r="K15" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="92">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="95"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="110" t="s">
+        <v>234</v>
+      </c>
+      <c r="O15" s="115" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.794</v>
+      </c>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="100"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.73205242525699488</v>
       </c>
-      <c r="D15" s="89">
-        <f t="shared" si="2"/>
+      <c r="D16" s="44">
+        <f t="shared" si="3"/>
         <v>-2.0400849619872816</v>
       </c>
-      <c r="E15" s="89">
-        <f t="shared" si="2"/>
+      <c r="E16" s="44">
+        <f t="shared" si="3"/>
         <v>-0.42809379124847458</v>
       </c>
-      <c r="F15" s="90">
-        <f t="shared" si="2"/>
+      <c r="F16" s="45">
+        <f t="shared" si="3"/>
         <v>1.8904251265581622</v>
       </c>
-      <c r="G15" s="89">
-        <f t="shared" si="2"/>
+      <c r="G16" s="44">
+        <f t="shared" si="3"/>
         <v>0.24293785310734473</v>
       </c>
-      <c r="H15" s="89">
-        <f t="shared" si="2"/>
+      <c r="H16" s="44">
+        <f t="shared" si="3"/>
         <v>0.25303030303030294</v>
       </c>
-      <c r="I15" s="89">
-        <f t="shared" si="2"/>
+      <c r="I16" s="44">
+        <f t="shared" si="3"/>
         <v>0.69286577992744869</v>
       </c>
-      <c r="J15" s="89">
-        <f t="shared" si="2"/>
+      <c r="J16" s="97">
+        <f t="shared" si="3"/>
         <v>0.28571428571428581</v>
       </c>
-      <c r="K15" s="91">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="97">
+        <f>SUM(F16:J16)/5</f>
         <v>0.67299466966750887</v>
       </c>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="O15" s="96" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.012</v>
-      </c>
-      <c r="P15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="110" t="s">
+        <v>235</v>
+      </c>
+      <c r="O16" s="114">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="83">
+        <f>B15/B10</f>
+        <v>-0.24013170741561232</v>
+      </c>
+      <c r="C17" s="83">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>-0.28264997853886753</v>
+      </c>
+      <c r="D17" s="83">
+        <f t="shared" si="4"/>
+        <v>0.20833146873737343</v>
+      </c>
+      <c r="E17" s="85">
+        <f t="shared" si="4"/>
+        <v>9.63916235673873E-2</v>
+      </c>
+      <c r="F17" s="83">
+        <f t="shared" si="4"/>
+        <v>0.23983739837398374</v>
+      </c>
+      <c r="G17" s="83">
+        <f t="shared" si="4"/>
+        <v>0.25200458190148911</v>
+      </c>
+      <c r="H17" s="83">
+        <f t="shared" si="4"/>
+        <v>0.26337579617834395</v>
+      </c>
+      <c r="I17" s="83">
+        <f t="shared" si="4"/>
+        <v>0.31284916201117319</v>
+      </c>
+      <c r="J17" s="85">
+        <f t="shared" si="4"/>
+        <v>0.34735623311462754</v>
+      </c>
+      <c r="K17" s="85"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="O17" s="117">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.11678426000000001</v>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="97">
+      <c r="B18" s="102">
         <v>0</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C18" s="102">
         <v>-0.44470879142530639</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D18" s="102">
         <v>-0.1208436115672319</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E18" s="102">
         <v>-4.1807537136377831E-2</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="O16" s="92">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="83"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="102" t="s">
-        <v>231</v>
-      </c>
-      <c r="O17" s="103">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.12274948000000001</v>
-      </c>
-      <c r="P17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="118" t="s">
+      <c r="F18" s="103"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="119"/>
-      <c r="P18" s="46"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="120" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="121" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2003</v>
-      </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="63" t="s">
+      <c r="O18" s="109"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="O19" s="105">
+      <c r="O19" s="118">
         <f>O6+O7</f>
         <v>245989000</v>
       </c>
-      <c r="P19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="109" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" s="118" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>44097800600</v>
+      </c>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2003</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="110" t="s">
+        <v>237</v>
+      </c>
+      <c r="O21" s="118">
+        <f>O19+O20</f>
+        <v>44343789600</v>
+      </c>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Palantir Technologies Inc. is engaged in building software to assist in counterterrorism investigations and operations. The Company’s three principal software platforms include Palantir Gotham (Gotham), Palantir Foundry (Foundry), and Palantir Apollo (Apollo). Gotham enables users to identify patterns hidden deep within datasets, ranging from signals intelligence sources to reports from confidential informants. It also facilitates the hand-off between analysts and operational users, helping operators plan and execute real-world responses to threats. Foundry transforms the ways organizations operate by creating a central operating system for their data. Apollo is a cloud-agnostic, single control layer that coordinates ongoing delivery of new features, security updates, and platform configurations, helping to ensure the continuous operation of critical systems and allowing its customers to run their software in virtually any environment.</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="O20" s="105" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>40215454160</v>
-      </c>
-      <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="O21" s="105">
-        <f>O19+O20</f>
-        <v>40461443160</v>
-      </c>
-      <c r="P21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="76" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="O22" s="106">
+      <c r="O22" s="119">
         <f>(O19/O21)</f>
-        <v>6.0795903652587366E-3</v>
-      </c>
-      <c r="P22" s="46"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="102" t="s">
+        <v>5.5473156944619816E-3</v>
+      </c>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="116" t="s">
         <v>239</v>
       </c>
-      <c r="O23" s="107">
+      <c r="O23" s="120">
         <f>O20/O21</f>
-        <v>0.99392040963474126</v>
-      </c>
-      <c r="P23" s="46"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="110" t="s">
+        <v>0.99445268430553801</v>
+      </c>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="O24" s="111"/>
-      <c r="P24" s="46"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="112">
+      <c r="O24" s="122"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="123">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.12217271099053563</v>
-      </c>
-      <c r="O25" s="113"/>
-      <c r="P25" s="46"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="83"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="83"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="83"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="83"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="83"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="83"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="83"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="83"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="83"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="83"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="83"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="83"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="83"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="83"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="83"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="83"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="83"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="83"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="83"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="83"/>
-      <c r="O60" s="83"/>
-      <c r="P60" s="83"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="83"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
+        <v>0.11629107869575009</v>
+      </c>
+      <c r="O25" s="124"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="46"/>
-      <c r="P84" s="46"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="46"/>
-      <c r="P86" s="46"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="46"/>
-      <c r="P97" s="46"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="46"/>
-      <c r="P98" s="46"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="46"/>
-      <c r="P101" s="46"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="46"/>
-      <c r="P102" s="46"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="38"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="46"/>
-      <c r="P106" s="46"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E25"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15277,8 +15640,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:PLTR/explorer/revenue_proj" xr:uid="{4A481B92-E77C-C243-9C9D-F3A42F9D01BC}"/>

--- a/Technology/Software/Palantir.xlsx
+++ b/Technology/Software/Palantir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8925DCFE-64A1-BA48-9716-461AC2C75A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA46901A-B010-A640-95BE-F6A4789503C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1452,15 +1452,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1553,12 +1544,6 @@
     <xf numFmtId="9" fontId="17" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1631,18 +1616,6 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1688,6 +1661,33 @@
     <xf numFmtId="10" fontId="21" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1723,6 +1723,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1742,7 +1744,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1755,6 +1757,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1882,11 +1886,11 @@
     <v>Powered by Refinitiv</v>
     <v>21.85</v>
     <v>5.84</v>
-    <v>1.794</v>
-    <v>0.22500000000000001</v>
-    <v>1.1222000000000001E-2</v>
-    <v>-0.04</v>
-    <v>-1.9729999999999999E-3</v>
+    <v>1.8260000000000001</v>
+    <v>0.54500000000000004</v>
+    <v>3.1648999999999997E-2</v>
+    <v>0.08</v>
+    <v>4.5019999999999999E-3</v>
     <v>USD</v>
     <v>Palantir Technologies Inc. is engaged in building software to assist in counterterrorism investigations and operations. The Company’s three principal software platforms include Palantir Gotham (Gotham), Palantir Foundry (Foundry), and Palantir Apollo (Apollo). Gotham enables users to identify patterns hidden deep within datasets, ranging from signals intelligence sources to reports from confidential informants. It also facilitates the hand-off between analysts and operational users, helping operators plan and execute real-world responses to threats. Foundry transforms the ways organizations operate by creating a central operating system for their data. Apollo is a cloud-agnostic, single control layer that coordinates ongoing delivery of new features, security updates, and platform configurations, helping to ensure the continuous operation of critical systems and allowing its customers to run their software in virtually any environment.</v>
     <v>3810</v>
@@ -1894,25 +1898,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1200 17Th Street, Floor 15, DENVER, CO, 80202 US</v>
-    <v>20.29</v>
+    <v>17.920000000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041650832813</v>
+    <v>45269.041596457813</v>
     <v>0</v>
-    <v>19.55</v>
-    <v>44097800600</v>
+    <v>17.09</v>
+    <v>38638590760</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
-    <v>19.93</v>
-    <v>306.34070000000003</v>
-    <v>20.05</v>
-    <v>20.274999999999999</v>
-    <v>20.23</v>
+    <v>17.18</v>
+    <v>263.10160000000002</v>
+    <v>17.22</v>
+    <v>17.765000000000001</v>
+    <v>17.850000000000001</v>
     <v>2174984000</v>
     <v>PLTR</v>
     <v>PALANTIR TECHNOLOGIES INC. (XNYS:PLTR)</v>
-    <v>61493670</v>
-    <v>68967055</v>
+    <v>57542134</v>
+    <v>74675165</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -2524,9 +2528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY199"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G173" sqref="G173"/>
+      <selection pane="topRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13722,7 +13726,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13730,196 +13734,196 @@
     <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="81" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="e" vm="1">
+    <row r="1" spans="1:18" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-    </row>
-    <row r="2" spans="1:18" s="81" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+    </row>
+    <row r="2" spans="1:18" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" cm="1">
+      <c r="A3" s="47" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>44097800600</v>
-      </c>
-      <c r="B3" s="51" t="s">
+        <v>38638590760</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="49">
         <f>Financials!G8*0.01</f>
         <v>0.79150000000000009</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="49">
         <f>SUM(C11:E11)/3</f>
         <v>0.37289448271806541</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="51">
         <f>AVERAGE(Financials!F129:K129)</f>
         <v>1.0051774653253465E-2</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="52">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>20210079959.170105</v>
-      </c>
-      <c r="J3" s="56" t="s">
+        <v>19676658280.326435</v>
+      </c>
+      <c r="J3" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="54">
         <f>Financials!G172*-1/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="55" t="s">
         <v>242</v>
       </c>
       <c r="M3" s="38"/>
-      <c r="N3" s="106" t="s">
+      <c r="N3" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="O3" s="107"/>
+      <c r="O3" s="119"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
     </row>
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59">
+      <c r="A4" s="56">
         <f>Financials!G56-Financials!G96-Financials!G105</f>
         <v>2857263000</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="57" t="s">
         <v>199</v>
       </c>
       <c r="C4" s="40">
         <f>Financials!G17*0.01</f>
         <v>-3.2199999999999999E-2</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="57" t="s">
         <v>200</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C13:E13)/3</f>
         <v>5.8843912838279978E-2</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="62">
-        <f>A5*(1+(5*0.05))</f>
-        <v>2718730000</v>
-      </c>
-      <c r="H4" s="61" t="s">
+      <c r="G4" s="59">
+        <f>A5*(1+(5*G3))</f>
+        <v>2284296245.2121592</v>
+      </c>
+      <c r="H4" s="58" t="s">
         <v>241</v>
       </c>
       <c r="I4" s="39">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>15199442130.088928</v>
-      </c>
-      <c r="J4" s="61" t="s">
+        <v>14739982989.093843</v>
+      </c>
+      <c r="J4" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="63" cm="1">
+      <c r="K4" s="60" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.1222000000000001E-2</v>
-      </c>
-      <c r="L4" s="64" t="s">
+        <v>3.1648999999999997E-2</v>
+      </c>
+      <c r="L4" s="61" t="s">
         <v>203</v>
       </c>
       <c r="M4" s="38"/>
-      <c r="N4" s="108" t="s">
+      <c r="N4" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="109"/>
+      <c r="O4" s="121"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" cm="1">
+      <c r="A5" s="56" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>2174984000</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="57" t="s">
         <v>205</v>
       </c>
       <c r="C5" s="40">
-        <f>Financials!G34*0.01</f>
-        <v>-2.35E-2</v>
-      </c>
-      <c r="D5" s="65" t="s">
+        <f>F14</f>
+        <v>0.23021680216802168</v>
+      </c>
+      <c r="D5" s="62" t="s">
         <v>206</v>
       </c>
       <c r="E5" s="40">
         <f>SUM(C16:E16)/3</f>
         <v>-0.57870877599292048</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="59">
         <f>Financials!G56</f>
         <v>3103252000</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="58" t="s">
         <v>208</v>
       </c>
       <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>18056705130.088928</v>
-      </c>
-      <c r="J5" s="61" t="s">
+        <v>17597245989.093842</v>
+      </c>
+      <c r="J5" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="66" cm="1">
+      <c r="K5" s="63" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>20.274999999999999</v>
-      </c>
-      <c r="L5" s="67" t="s">
+        <v>17.765000000000001</v>
+      </c>
+      <c r="L5" s="64" t="s">
         <v>210</v>
       </c>
       <c r="M5" s="38"/>
-      <c r="N5" s="110" t="s">
+      <c r="N5" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="111">
+      <c r="O5" s="102">
         <f>Financials!G21</f>
         <v>5386000</v>
       </c>
@@ -13928,53 +13932,53 @@
       <c r="R5" s="38"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68">
+      <c r="A6" s="65">
         <f>O20/F10</f>
-        <v>19.917705781391149</v>
-      </c>
-      <c r="B6" s="60" t="s">
+        <v>17.451938012646792</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="40">
-        <f>Financials!G190</f>
-        <v>0.18354655998732522</v>
-      </c>
-      <c r="D6" s="65" t="s">
+        <f>F17</f>
+        <v>0.23983739837398374</v>
+      </c>
+      <c r="D6" s="62" t="s">
         <v>192</v>
       </c>
       <c r="E6" s="40">
         <f>Financials!G33/Financials!G126</f>
         <v>-1.5837171159927489E-2</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="59">
         <f>Financials!G96+Financials!G105</f>
         <v>245989000</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="60">
         <f>N25</f>
-        <v>0.11629107869575009</v>
-      </c>
-      <c r="J6" s="61" t="s">
+        <v>0.11876592171876614</v>
+      </c>
+      <c r="J6" s="58" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="41">
         <f>I5/G4</f>
-        <v>6.6415955722300222</v>
-      </c>
-      <c r="L6" s="69" t="s">
+        <v>7.703574361678057</v>
+      </c>
+      <c r="L6" s="66" t="s">
         <v>216</v>
       </c>
       <c r="M6" s="38"/>
-      <c r="N6" s="110" t="s">
+      <c r="N6" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="111">
+      <c r="O6" s="102">
         <f>Financials!G96</f>
         <v>51855000</v>
       </c>
@@ -13983,52 +13987,52 @@
       <c r="R6" s="38"/>
     </row>
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="67">
         <f>O20/F12</f>
-        <v>86.517168138120468</v>
-      </c>
-      <c r="B7" s="71" t="s">
+        <v>75.806534745928971</v>
+      </c>
+      <c r="B7" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="69">
         <f>F15/O21</f>
-        <v>1.1974619327528109E-2</v>
-      </c>
-      <c r="D7" s="71" t="s">
+        <v>1.3655798861075309E-2</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="70">
         <f>(Financials!G16*(1-0.25))/(Financials!G126+Financials!G105+Financials!G96)</f>
         <v>-1.5046964046195103E-2</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="71">
         <f>(Financials!G96+Financials!G105)/Financials!G126</f>
         <v>8.1047056179982591E-2</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="73">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="75">
         <f>K6/K5-1</f>
-        <v>-0.67242438607990018</v>
-      </c>
-      <c r="L7" s="79" t="s">
+        <v>-0.56636226503360221</v>
+      </c>
+      <c r="L7" s="76" t="s">
         <v>222</v>
       </c>
       <c r="M7" s="38"/>
-      <c r="N7" s="110" t="s">
+      <c r="N7" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="O7" s="111">
+      <c r="O7" s="102">
         <f>Financials!G105</f>
         <v>194134000</v>
       </c>
@@ -14050,10 +14054,10 @@
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="112" t="s">
+      <c r="N8" s="103" t="s">
         <v>204</v>
       </c>
-      <c r="O8" s="113">
+      <c r="O8" s="104">
         <f>O5/(O6+O7)</f>
         <v>2.1895288000682956E-2</v>
       </c>
@@ -14062,41 +14066,41 @@
       <c r="R8" s="38"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82">
         <v>2019</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="82">
         <v>2020</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="82">
         <v>2021</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="83">
         <v>2022</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="84">
         <v>2023</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="85">
         <v>2024</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="85">
         <v>2025</v>
       </c>
-      <c r="I9" s="90">
+      <c r="I9" s="85">
         <v>2026</v>
       </c>
-      <c r="J9" s="91">
+      <c r="J9" s="86">
         <v>2027</v>
       </c>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
       <c r="M9" s="43"/>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="O9" s="111">
+      <c r="O9" s="102">
         <f>Financials!G25</f>
         <v>9308000</v>
       </c>
@@ -14105,43 +14109,43 @@
       <c r="R9" s="38"/>
     </row>
     <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="88">
         <v>742555000</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="88">
         <v>1092673000</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="88">
         <v>1541889000</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="89">
         <v>1905871000</v>
       </c>
-      <c r="F10" s="93">
+      <c r="F10" s="88">
         <v>2214000000</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="88">
         <v>2619000000</v>
       </c>
-      <c r="H10" s="93">
+      <c r="H10" s="88">
         <v>3140000000</v>
       </c>
-      <c r="I10" s="93">
+      <c r="I10" s="88">
         <v>4475000000</v>
       </c>
-      <c r="J10" s="94">
+      <c r="J10" s="89">
         <v>5182000000</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="N10" s="110" t="s">
+      <c r="N10" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="O10" s="111">
+      <c r="O10" s="102">
         <f>Financials!G24</f>
         <v>-34055000</v>
       </c>
@@ -14150,7 +14154,7 @@
       <c r="R10" s="38"/>
     </row>
     <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="96"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
@@ -14180,20 +14184,20 @@
         <f t="shared" si="0"/>
         <v>0.42515923566878988</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="92">
         <f t="shared" si="0"/>
         <v>0.15798882681564241</v>
       </c>
-      <c r="K11" s="97">
+      <c r="K11" s="92">
         <f>SUM(F11:J11)/5</f>
         <v>0.22533587358353552</v>
       </c>
       <c r="L11" s="43"/>
       <c r="M11" s="43"/>
-      <c r="N11" s="110" t="s">
+      <c r="N11" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="O11" s="114">
+      <c r="O11" s="105">
         <f>O9/O10</f>
         <v>-0.2733225664366466</v>
       </c>
@@ -14202,45 +14206,45 @@
       <c r="R11" s="38"/>
     </row>
     <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="88">
         <v>-579646000</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="88">
         <v>-1166391000</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="88">
         <v>-520379000</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="88">
         <v>-373705000</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="93">
         <v>509700000</v>
       </c>
-      <c r="G12" s="93">
+      <c r="G12" s="88">
         <v>632200000</v>
       </c>
-      <c r="H12" s="93">
+      <c r="H12" s="88">
         <v>794900000</v>
       </c>
-      <c r="I12" s="93">
+      <c r="I12" s="88">
         <v>1038000000</v>
       </c>
-      <c r="J12" s="94">
+      <c r="J12" s="89">
         <v>1292000000</v>
       </c>
-      <c r="K12" s="99" t="s">
+      <c r="K12" s="94" t="s">
         <v>229</v>
       </c>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
-      <c r="N12" s="110" t="s">
+      <c r="N12" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="O12" s="114">
+      <c r="O12" s="105">
         <f>O8*(1-O11)</f>
         <v>2.7879764309899132E-2</v>
       </c>
@@ -14249,7 +14253,7 @@
       <c r="R12" s="38"/>
     </row>
     <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
@@ -14279,127 +14283,127 @@
         <f t="shared" si="1"/>
         <v>0.30582463202918597</v>
       </c>
-      <c r="J13" s="97">
+      <c r="J13" s="92">
         <f t="shared" si="1"/>
         <v>0.24470134874759153</v>
       </c>
-      <c r="K13" s="97">
-        <f>SUM(F13:J13)/5</f>
-        <v>-0.26313826689794939</v>
+      <c r="K13" s="92">
+        <f>AVERAGE(G13:J13)</f>
+        <v>0.26205467537530219</v>
       </c>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="108" t="s">
+      <c r="N13" s="120" t="s">
         <v>231</v>
       </c>
-      <c r="O13" s="109"/>
+      <c r="O13" s="121"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
     </row>
     <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="78">
         <f>B12/B10</f>
         <v>-0.78061019049094005</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="78">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>-1.0674657468428341</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="78">
         <f t="shared" si="2"/>
         <v>-0.33749446296069302</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="78">
         <f t="shared" si="2"/>
         <v>-0.19608095196369535</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="79">
         <f t="shared" si="2"/>
         <v>0.23021680216802168</v>
       </c>
-      <c r="G14" s="83">
+      <c r="G14" s="78">
         <f t="shared" si="2"/>
         <v>0.24138984345169912</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="78">
         <f t="shared" si="2"/>
         <v>0.2531528662420382</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="78">
         <f t="shared" si="2"/>
         <v>0.23195530726256983</v>
       </c>
-      <c r="J14" s="85">
+      <c r="J14" s="80">
         <f t="shared" si="2"/>
         <v>0.24932458510227712</v>
       </c>
-      <c r="K14" s="85"/>
+      <c r="K14" s="80"/>
       <c r="L14" s="43"/>
       <c r="M14" s="43"/>
-      <c r="N14" s="110" t="s">
+      <c r="N14" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="O14" s="114">
+      <c r="O14" s="105">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="88">
         <v>-178311000</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="88">
         <v>-308844000</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="88">
         <v>321224000</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="88">
         <v>183710000</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="93">
         <v>531000000</v>
       </c>
-      <c r="G15" s="93">
+      <c r="G15" s="88">
         <v>660000000</v>
       </c>
-      <c r="H15" s="93">
+      <c r="H15" s="88">
         <v>827000000</v>
       </c>
-      <c r="I15" s="93">
+      <c r="I15" s="88">
         <v>1400000000</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="89">
         <v>1800000000</v>
       </c>
-      <c r="K15" s="99" t="s">
+      <c r="K15" s="94" t="s">
         <v>232</v>
       </c>
       <c r="L15" s="43"/>
       <c r="M15" s="43"/>
-      <c r="N15" s="110" t="s">
+      <c r="N15" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="O15" s="115" cm="1">
+      <c r="O15" s="106" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.794</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="100"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -14429,20 +14433,20 @@
         <f t="shared" si="3"/>
         <v>0.69286577992744869</v>
       </c>
-      <c r="J16" s="97">
+      <c r="J16" s="92">
         <f t="shared" si="3"/>
         <v>0.28571428571428581</v>
       </c>
-      <c r="K16" s="97">
-        <f>SUM(F16:J16)/5</f>
-        <v>0.67299466966750887</v>
+      <c r="K16" s="92">
+        <f>AVERAGE(G16:J16)</f>
+        <v>0.36863705544484554</v>
       </c>
       <c r="L16" s="43"/>
       <c r="M16" s="43"/>
-      <c r="N16" s="110" t="s">
+      <c r="N16" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="O16" s="114">
+      <c r="O16" s="105">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="38"/>
@@ -14450,87 +14454,87 @@
       <c r="R16" s="38"/>
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="83">
+      <c r="B17" s="78">
         <f>B15/B10</f>
         <v>-0.24013170741561232</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="78">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>-0.28264997853886753</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="78">
         <f t="shared" si="4"/>
         <v>0.20833146873737343</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="80">
         <f t="shared" si="4"/>
         <v>9.63916235673873E-2</v>
       </c>
-      <c r="F17" s="83">
+      <c r="F17" s="78">
         <f t="shared" si="4"/>
         <v>0.23983739837398374</v>
       </c>
-      <c r="G17" s="83">
+      <c r="G17" s="78">
         <f t="shared" si="4"/>
         <v>0.25200458190148911</v>
       </c>
-      <c r="H17" s="83">
+      <c r="H17" s="78">
         <f t="shared" si="4"/>
         <v>0.26337579617834395</v>
       </c>
-      <c r="I17" s="83">
+      <c r="I17" s="78">
         <f t="shared" si="4"/>
         <v>0.31284916201117319</v>
       </c>
-      <c r="J17" s="85">
+      <c r="J17" s="80">
         <f t="shared" si="4"/>
         <v>0.34735623311462754</v>
       </c>
-      <c r="K17" s="85"/>
+      <c r="K17" s="80"/>
       <c r="L17" s="43"/>
       <c r="M17" s="43"/>
-      <c r="N17" s="116" t="s">
+      <c r="N17" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="O17" s="117">
+      <c r="O17" s="108">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.11678426000000001</v>
+        <v>0.11934454</v>
       </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
       <c r="R17" s="38"/>
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="102">
+      <c r="B18" s="97">
         <v>0</v>
       </c>
-      <c r="C18" s="102">
+      <c r="C18" s="97">
         <v>-0.44470879142530639</v>
       </c>
-      <c r="D18" s="102">
+      <c r="D18" s="97">
         <v>-0.1208436115672319</v>
       </c>
-      <c r="E18" s="102">
+      <c r="E18" s="97">
         <v>-4.1807537136377831E-2</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="105"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
-      <c r="N18" s="108" t="s">
+      <c r="N18" s="120" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="109"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
@@ -14549,10 +14553,10 @@
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
-      <c r="N19" s="110" t="s">
+      <c r="N19" s="101" t="s">
         <v>214</v>
       </c>
-      <c r="O19" s="118">
+      <c r="O19" s="109">
         <f>O6+O7</f>
         <v>245989000</v>
       </c>
@@ -14574,29 +14578,29 @@
       <c r="K20" s="43"/>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
-      <c r="N20" s="110" t="s">
+      <c r="N20" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="O20" s="118" cm="1">
+      <c r="O20" s="109" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>44097800600</v>
+        <v>38638590760</v>
       </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="str" cm="1">
+      <c r="A21" s="122" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" cm="1">
+      <c r="B21" s="122"/>
+      <c r="C21" s="123" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2003</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
@@ -14604,26 +14608,26 @@
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
       <c r="M21" s="43"/>
-      <c r="N21" s="110" t="s">
+      <c r="N21" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="O21" s="118">
+      <c r="O21" s="109">
         <f>O19+O20</f>
-        <v>44343789600</v>
+        <v>38884579760</v>
       </c>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="str" cm="1">
+      <c r="A22" s="124" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Palantir Technologies Inc. is engaged in building software to assist in counterterrorism investigations and operations. The Company’s three principal software platforms include Palantir Gotham (Gotham), Palantir Foundry (Foundry), and Palantir Apollo (Apollo). Gotham enables users to identify patterns hidden deep within datasets, ranging from signals intelligence sources to reports from confidential informants. It also facilitates the hand-off between analysts and operational users, helping operators plan and execute real-world responses to threats. Foundry transforms the ways organizations operate by creating a central operating system for their data. Apollo is a cloud-agnostic, single control layer that coordinates ongoing delivery of new features, security updates, and platform configurations, helping to ensure the continuous operation of critical systems and allowing its customers to run their software in virtually any environment.</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
@@ -14632,23 +14636,23 @@
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
       <c r="M22" s="43"/>
-      <c r="N22" s="112" t="s">
+      <c r="N22" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="O22" s="119">
+      <c r="O22" s="110">
         <f>(O19/O21)</f>
-        <v>5.5473156944619816E-3</v>
+        <v>6.3261324030829645E-3</v>
       </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
@@ -14657,23 +14661,23 @@
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
       <c r="M23" s="43"/>
-      <c r="N23" s="116" t="s">
+      <c r="N23" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="O23" s="120">
+      <c r="O23" s="111">
         <f>O20/O21</f>
-        <v>0.99445268430553801</v>
+        <v>0.993673867596917</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
@@ -14682,20 +14686,20 @@
       <c r="K24" s="43"/>
       <c r="L24" s="43"/>
       <c r="M24" s="43"/>
-      <c r="N24" s="121" t="s">
+      <c r="N24" s="112" t="s">
         <v>240</v>
       </c>
-      <c r="O24" s="122"/>
+      <c r="O24" s="113"/>
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
@@ -14704,21 +14708,21 @@
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="123">
+      <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11629107869575009</v>
-      </c>
-      <c r="O25" s="124"/>
+        <v>0.11876592171876614</v>
+      </c>
+      <c r="O25" s="115"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
@@ -14734,11 +14738,11 @@
       <c r="R26" s="38"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -14754,11 +14758,11 @@
       <c r="R27" s="38"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
@@ -14774,11 +14778,11 @@
       <c r="R28" s="38"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
